--- a/dados_planejamento/planejamento.xlsx
+++ b/dados_planejamento/planejamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\dados_planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>GRUPO DE DESPESA</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t xml:space="preserve">(%)  </t>
   </si>
   <si>
-    <t>Natureza</t>
-  </si>
-  <si>
     <t>Apoio Financeiro</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Esfera Administrativa</t>
-  </si>
-  <si>
     <t>Federal</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Internacional</t>
   </si>
   <si>
-    <t>Instrumento</t>
-  </si>
-  <si>
     <t>Convênio</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>Termo de Outorga</t>
   </si>
   <si>
-    <t>Convênios</t>
-  </si>
-  <si>
     <t>Nacionais</t>
   </si>
   <si>
@@ -349,12 +334,27 @@
   </si>
   <si>
     <t>Acervo Bibliográfico - BCE (Ação 20RK)</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>unidade Natureza</t>
+  </si>
+  <si>
+    <t>unidade Esfera Administrativa</t>
+  </si>
+  <si>
+    <t>Unidade Instrumento</t>
+  </si>
+  <si>
+    <t>Unidade Convênios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -615,7 +615,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -653,7 +653,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -725,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -893,30 +891,30 @@
     <col min="8" max="8" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="24.75">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -924,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>1490356367</v>
@@ -943,10 +941,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="9">
         <v>875539971</v>
@@ -965,10 +963,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" s="9">
         <v>426725000</v>
@@ -987,10 +985,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>10836396</v>
@@ -1009,10 +1007,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="9">
         <v>177255000</v>
@@ -1034,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>192824051</v>
@@ -1057,10 +1055,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>46416570</v>
@@ -1079,10 +1077,10 @@
     </row>
     <row r="9" spans="1:8" ht="24.75">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9">
         <v>36032003</v>
@@ -1097,10 +1095,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="9">
         <v>10379556</v>
@@ -1115,10 +1113,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="9">
         <v>5011</v>
@@ -1133,10 +1131,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="5">
         <v>35507849</v>
@@ -1151,10 +1149,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9">
         <v>1250000</v>
@@ -1173,10 +1171,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="9">
         <v>9000000</v>
@@ -1195,10 +1193,10 @@
     </row>
     <row r="15" spans="1:8" ht="25.5">
       <c r="A15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="9">
         <v>24768603</v>
@@ -1217,10 +1215,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9">
         <v>186600</v>
@@ -1239,10 +1237,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" s="9">
         <v>182646</v>
@@ -1261,10 +1259,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" s="9">
         <v>120000</v>
@@ -1283,10 +1281,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>25675962</v>
@@ -1309,10 +1307,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9">
         <v>469917</v>
@@ -1331,10 +1329,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21" s="9">
         <v>16001821</v>
@@ -1353,10 +1351,10 @@
     </row>
     <row r="22" spans="1:8" ht="25.5">
       <c r="A22" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="6"/>
@@ -1375,10 +1373,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9">
         <v>300000</v>
@@ -1397,10 +1395,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9">
         <v>8755400</v>
@@ -1419,10 +1417,10 @@
     </row>
     <row r="25" spans="1:8" ht="25.5">
       <c r="A25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1441,10 +1439,10 @@
     </row>
     <row r="26" spans="1:8" ht="25.5">
       <c r="A26" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C26" s="19">
         <v>58824</v>
@@ -1463,10 +1461,10 @@
     </row>
     <row r="27" spans="1:8" ht="25.5">
       <c r="A27" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" s="9">
         <v>90000</v>
@@ -1485,10 +1483,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C28" s="5">
         <v>85223670</v>
@@ -1511,10 +1509,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C29" s="9">
         <v>56631181</v>
@@ -1537,10 +1535,10 @@
     </row>
     <row r="30" spans="1:8" ht="25.5">
       <c r="A30" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="10"/>
@@ -1551,10 +1549,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C31" s="9">
         <v>24092489</v>
@@ -1573,10 +1571,10 @@
     </row>
     <row r="32" spans="1:8" ht="25.5">
       <c r="A32" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C32" s="9">
         <v>2000000</v>
@@ -1595,10 +1593,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C33" s="9">
         <v>2500000</v>
@@ -1620,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="5">
         <v>1400000</v>
@@ -1642,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5">
         <v>5182798</v>
@@ -1665,10 +1663,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C36" s="9">
         <v>4482798</v>
@@ -1691,10 +1689,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" s="9">
         <v>700000</v>
@@ -1716,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="5">
         <v>5229008</v>
@@ -1738,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5">
         <v>1688363216</v>
@@ -1764,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
         <v>1694992224</v>
@@ -1804,15 +1802,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
       <c r="A1" s="23" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="25">
         <v>10</v>
@@ -1820,7 +1818,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="25">
         <v>40</v>
@@ -1828,7 +1826,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -1836,7 +1834,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="25">
         <v>120</v>
@@ -1844,7 +1842,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="25">
         <v>0</v>
@@ -1852,7 +1850,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="25">
         <v>62</v>
@@ -1860,7 +1858,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="25">
         <v>69</v>
@@ -1868,7 +1866,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="25">
         <v>1</v>
@@ -1876,7 +1874,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="25">
         <v>5</v>
@@ -1884,7 +1882,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="25">
         <v>27</v>
@@ -1892,7 +1890,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="26">
         <v>337</v>
@@ -1909,7 +1907,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1919,15 +1917,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="30">
         <v>87</v>
@@ -1935,7 +1933,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="30">
         <v>12</v>
@@ -1943,7 +1941,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="30">
         <v>4</v>
@@ -1951,7 +1949,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="30">
         <v>161</v>
@@ -1959,7 +1957,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="30">
         <v>73</v>
@@ -1967,7 +1965,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="32">
         <v>337</v>
@@ -1982,9 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1993,15 +1989,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
       <c r="A1" s="23" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="25">
         <v>49</v>
@@ -2009,7 +2005,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="25">
         <v>65</v>
@@ -2017,7 +2013,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="25">
         <v>187</v>
@@ -2025,7 +2021,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="25">
         <v>1</v>
@@ -2033,7 +2029,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="25">
         <v>35</v>
@@ -2041,7 +2037,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="25">
         <v>0</v>
@@ -2049,7 +2045,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="26">
         <v>337</v>
@@ -2064,13 +2060,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="34" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B1" s="26">
         <v>2015</v>
@@ -2091,7 +2089,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" s="36">
         <v>171</v>
@@ -2112,7 +2110,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="36">
         <v>65</v>
@@ -2133,7 +2131,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="37">
         <v>236</v>

--- a/dados_planejamento/planejamento.xlsx
+++ b/dados_planejamento/planejamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\Anuário\2020\Anuário 2020\Anuário 2020\anuario2020\dados_planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -585,15 +585,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2061,91 +2063,91 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="36">
         <v>2015</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="36">
         <v>2016</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="36">
         <v>2017</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1" s="36">
         <v>2018</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="36">
         <v>2019</v>
       </c>
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="37">
         <v>171</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="37">
         <v>176</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="37">
         <v>225</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="37">
         <v>264</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="37">
         <v>309</v>
       </c>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="37">
         <v>65</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="37">
         <v>48</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="37">
         <v>47</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="37">
         <v>73</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="37">
         <v>92</v>
       </c>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>236</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>224</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>272</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>337</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>401</v>
       </c>
       <c r="G4" s="33"/>
